--- a/01.院方需求/项目交付清单V2（院方反馈）.xlsx
+++ b/01.院方需求/项目交付清单V2（院方反馈）.xlsx
@@ -22,7 +22,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -30,6 +30,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -39,6 +40,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -340,6 +342,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -364,6 +367,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 是什么版本？</t>
@@ -409,19 +413,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -460,6 +451,7 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -468,12 +460,29 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -563,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -578,68 +587,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -670,7 +679,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4352925</xdr:colOff>
+      <xdr:colOff>4128807</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -738,7 +747,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1917327</xdr:colOff>
+      <xdr:colOff>1121709</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -1089,18 +1098,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="6" customWidth="1"/>
     <col min="3" max="3" width="60.25" style="6" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="24" customWidth="1"/>
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1117,11 +1126,11 @@
       <c r="D1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>69</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="G1" s="7"/>
     </row>
@@ -1135,17 +1144,17 @@
       <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="2"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -1154,102 +1163,102 @@
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="23"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="23"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="23"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A6" s="24"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="23"/>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="23"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="23"/>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="165" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -1258,87 +1267,87 @@
       <c r="C9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="45" customHeight="1">
-      <c r="A10" s="24"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="13" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="11"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="61.5" customHeight="1">
-      <c r="A11" s="24"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="11"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="61.5" customHeight="1">
-      <c r="A12" s="24"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="12"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A13" s="24"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="2"/>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -1347,51 +1356,51 @@
       <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="3"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A15" s="24"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="3"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A16" s="24"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="3"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -1400,57 +1409,57 @@
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="60" customHeight="1">
-      <c r="A18" s="24"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="74.25" customHeight="1">
-      <c r="A19" s="24"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -1459,32 +1468,32 @@
       <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="90.75" customHeight="1">
-      <c r="A21" s="22"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="3"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="90.75" customHeight="1">
@@ -1493,11 +1502,11 @@
         <v>68</v>
       </c>
       <c r="C22" s="17"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="17" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="17" t="s">
         <v>64</v>
       </c>
+      <c r="F22" s="19"/>
       <c r="G22" s="7"/>
       <c r="H22" s="18"/>
     </row>
@@ -1509,8 +1518,8 @@
       <c r="C23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="F23" s="17" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G23" s="7"/>
@@ -1519,8 +1528,8 @@
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="30"/>
-      <c r="F24" s="19"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="19"/>
       <c r="G24" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="40.5">
@@ -1531,7 +1540,7 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="E3:E8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A14:A16"/>
